--- a/reports/best_model_pca.xlsx
+++ b/reports/best_model_pca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junkim/Desktop/math3856/ml_assignment_2/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0776759-22E3-BE49-8F34-9362527E8128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5B62E5-6D5B-E24F-880C-EFC400F0A7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,7 +415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -459,28 +461,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.60720143669560012</v>
+        <v>0.61014067644417846</v>
       </c>
       <c r="C2">
-        <v>3.5640004418920242E-3</v>
+        <v>3.5557611427956778E-3</v>
       </c>
       <c r="D2">
-        <v>0.59473684210526312</v>
+        <v>0.59188995215310991</v>
       </c>
       <c r="E2">
-        <v>1.247464863586956E-2</v>
+        <v>1.211076997122945E-2</v>
       </c>
       <c r="F2">
-        <v>0.80478456998587278</v>
+        <v>0.80440368277850949</v>
       </c>
       <c r="G2">
-        <v>2.9393822085816818E-3</v>
+        <v>2.8122564537157932E-3</v>
       </c>
       <c r="H2">
-        <v>0.76865951467353244</v>
+        <v>0.77008544248178057</v>
       </c>
       <c r="I2">
-        <v>1.1092847052211439E-2</v>
+        <v>1.1261994724418739E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -488,28 +490,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.6043041005686921</v>
+        <v>0.61188865609099086</v>
       </c>
       <c r="C3">
-        <v>3.9984666861202353E-3</v>
+        <v>4.523642820209204E-3</v>
       </c>
       <c r="D3">
-        <v>0.59523923444976079</v>
+        <v>0.59129186602870809</v>
       </c>
       <c r="E3">
-        <v>1.3507512618562791E-2</v>
+        <v>1.394849683979066E-2</v>
       </c>
       <c r="F3">
-        <v>0.79633947326456889</v>
+        <v>0.80731597506573538</v>
       </c>
       <c r="G3">
-        <v>5.0986821148585378E-3</v>
+        <v>4.9269476140639847E-3</v>
       </c>
       <c r="H3">
-        <v>0.77199059088265742</v>
+        <v>0.77110886460994055</v>
       </c>
       <c r="I3">
-        <v>1.256532164855996E-2</v>
+        <v>1.2864745008711549E-2</v>
       </c>
     </row>
   </sheetData>
